--- a/uploads/updated_file.xlsx
+++ b/uploads/updated_file.xlsx
@@ -4,6 +4,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -397,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C200"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +433,7 @@
         <v>96813859</v>
       </c>
       <c r="C3" t="str">
-        <v>WhatsApp Number</v>
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="4">
@@ -443,7 +444,7 @@
         <v>81004154</v>
       </c>
       <c r="C4" t="str">
-        <v>WhatsApp Number</v>
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="5">
@@ -465,17 +466,126 @@
         <v>97372474</v>
       </c>
       <c r="C6" t="str">
-        <v>WhatsApp Number</v>
+        <v>Not a WhatsApp Number</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>naheem</v>
+      </c>
+      <c r="B7">
+        <v>2347049972537</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Not a WhatsApp Number</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D200"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>ID</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Number</v>
+      </c>
+      <c r="D1" t="str">
+        <v>status</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>AAPPASAMY RAJENDRAN</v>
+      </c>
+      <c r="B2" t="str">
+        <v>S1229316Z</v>
+      </c>
+      <c r="C2">
+        <v>96748816</v>
+      </c>
+      <c r="D2" t="str">
+        <v>WhatsApp Number</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>AARON WONG</v>
+      </c>
+      <c r="C3">
+        <v>96813859</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Not a WhatsApp Number</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>ABD KHALEK BIN MOHAMED</v>
+      </c>
+      <c r="B4" t="str">
+        <v>S7622300I</v>
+      </c>
+      <c r="C4">
+        <v>81004154</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Not a WhatsApp Number</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>ABD RAHIM BIN JANTAN</v>
+      </c>
+      <c r="B5" t="str">
+        <v>S2168277B</v>
+      </c>
+      <c r="C5">
+        <v>90147870</v>
+      </c>
+      <c r="D5" t="str">
+        <v>WhatsApp Number</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>ABDUL FARIZ BIN ABDUL FATAH</v>
+      </c>
+      <c r="B6" t="str">
+        <v>S6801666E</v>
+      </c>
+      <c r="C6">
+        <v>97372474</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
         <v>ABDUL HADI BIN MOHD EZZAM</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="str">
+        <v>S7917562E</v>
+      </c>
+      <c r="C7">
         <v>81308416</v>
       </c>
-      <c r="C7" t="str">
+      <c r="D7" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -483,10 +593,10 @@
       <c r="A8" t="str">
         <v>ABDUL KADIR B KUNNUMAL HUSSAN</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>90089421</v>
       </c>
-      <c r="C8" t="str">
+      <c r="D8" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -494,21 +604,24 @@
       <c r="A9" t="str">
         <v>ABDUL MOHSIN BIN ABDUL GHANI</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>94374562</v>
       </c>
-      <c r="C9" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D9" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
         <v>ABDUL MUQMIN</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="str">
+        <v>S0100449B</v>
+      </c>
+      <c r="C10">
         <v>98750907</v>
       </c>
-      <c r="C10" t="str">
+      <c r="D10" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -516,10 +629,13 @@
       <c r="A11" t="str">
         <v>ABDUL RAHIM BIN ABDULLAH</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="str">
+        <v>S6800193E</v>
+      </c>
+      <c r="C11">
         <v>97834422</v>
       </c>
-      <c r="C11" t="str">
+      <c r="D11" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -527,10 +643,13 @@
       <c r="A12" t="str">
         <v>ABDUL RAHMAN</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="str">
+        <v>S8131457H</v>
+      </c>
+      <c r="C12">
         <v>81833649</v>
       </c>
-      <c r="C12" t="str">
+      <c r="D12" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -538,10 +657,13 @@
       <c r="A13" t="str">
         <v>ABDUL RAHMAN B SALIM</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="str">
+        <v>S7200118D</v>
+      </c>
+      <c r="C13">
         <v>98278712</v>
       </c>
-      <c r="C13" t="str">
+      <c r="D13" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -549,10 +671,13 @@
       <c r="A14" t="str">
         <v>ABDUL RAHMAN BIN IBRAHIM</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="str">
+        <v>S1662587F</v>
+      </c>
+      <c r="C14">
         <v>96779674</v>
       </c>
-      <c r="C14" t="str">
+      <c r="D14" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -560,10 +685,13 @@
       <c r="A15" t="str">
         <v>ABDUL RAHMAN BIN RAWI</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="str">
+        <v>S1533567Z</v>
+      </c>
+      <c r="C15">
         <v>96278065</v>
       </c>
-      <c r="C15" t="str">
+      <c r="D15" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -571,21 +699,27 @@
       <c r="A16" t="str">
         <v>ABDUL RAZAK ABDUL RAHMAN</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="str">
+        <v>S1774051B</v>
+      </c>
+      <c r="C16">
         <v>91442784</v>
       </c>
-      <c r="C16" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D16" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
         <v>ABEERAMY D/O APPAVOO</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="str">
+        <v>S7207103D</v>
+      </c>
+      <c r="C17">
         <v>92232450</v>
       </c>
-      <c r="C17" t="str">
+      <c r="D17" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -593,10 +727,13 @@
       <c r="A18" t="str">
         <v xml:space="preserve">ABEL LIM CHIN HOE </v>
       </c>
-      <c r="B18">
+      <c r="B18" t="str">
+        <v>S7136094F</v>
+      </c>
+      <c r="C18">
         <v>98389769</v>
       </c>
-      <c r="C18" t="str">
+      <c r="D18" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -604,10 +741,13 @@
       <c r="A19" t="str">
         <v>ABHISHEK SINHA</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="str">
+        <v>S2718603C</v>
+      </c>
+      <c r="C19">
         <v>94595048</v>
       </c>
-      <c r="C19" t="str">
+      <c r="D19" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -615,10 +755,13 @@
       <c r="A20" t="str">
         <v>ABISHEK MURTHY</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="str">
+        <v>S7143225D</v>
+      </c>
+      <c r="C20">
         <v>98780844</v>
       </c>
-      <c r="C20" t="str">
+      <c r="D20" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -626,21 +769,27 @@
       <c r="A21" t="str">
         <v>ABU RAYHAN KHAN</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="str">
+        <v>G5903176M</v>
+      </c>
+      <c r="C21">
         <v>90543121</v>
       </c>
-      <c r="C21" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D21" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
         <v>ADALENE ONG PENG PENG</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="str">
+        <v>S7825275H</v>
+      </c>
+      <c r="C22">
         <v>98531178</v>
       </c>
-      <c r="C22" t="str">
+      <c r="D22" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -648,21 +797,27 @@
       <c r="A23" t="str">
         <v>ADALKKALAM THIRUNARUM</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="str">
+        <v>S6980446B</v>
+      </c>
+      <c r="C23">
         <v>98457756</v>
       </c>
-      <c r="C23" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D23" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
         <v>ADILAH BIN SALLEH</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="str">
+        <v>S7209222H</v>
+      </c>
+      <c r="C24">
         <v>96924471</v>
       </c>
-      <c r="C24" t="str">
+      <c r="D24" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -670,10 +825,10 @@
       <c r="A25" t="str">
         <v>ADRIAN CHUA</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>98414007</v>
       </c>
-      <c r="C25" t="str">
+      <c r="D25" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -681,10 +836,10 @@
       <c r="A26" t="str">
         <v>ADRIAN CHUE</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>97661143</v>
       </c>
-      <c r="C26" t="str">
+      <c r="D26" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -692,10 +847,10 @@
       <c r="A27" t="str">
         <v>ADRIAN HIA</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>96916292</v>
       </c>
-      <c r="C27" t="str">
+      <c r="D27" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -703,10 +858,13 @@
       <c r="A28" t="str">
         <v>ADRIAN LEE</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="str">
+        <v>S1821509H</v>
+      </c>
+      <c r="C28">
         <v>98353205</v>
       </c>
-      <c r="C28" t="str">
+      <c r="D28" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -714,21 +872,24 @@
       <c r="A29" t="str">
         <v>ADRIAN NGAI</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>91071778</v>
       </c>
-      <c r="C29" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D29" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
         <v>ADRIAN PUNG CHOR THIAN</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="str">
+        <v>S7410522Z</v>
+      </c>
+      <c r="C30">
         <v>97481462</v>
       </c>
-      <c r="C30" t="str">
+      <c r="D30" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -736,10 +897,13 @@
       <c r="A31" t="str">
         <v>ADRIAN WONG</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="str">
+        <v>S7400053C</v>
+      </c>
+      <c r="C31">
         <v>97491480</v>
       </c>
-      <c r="C31" t="str">
+      <c r="D31" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -747,10 +911,13 @@
       <c r="A32" t="str">
         <v>ADRICK LIM HONG HOO</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="str">
+        <v>S7973598A</v>
+      </c>
+      <c r="C32">
         <v>97829589</v>
       </c>
-      <c r="C32" t="str">
+      <c r="D32" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -758,10 +925,13 @@
       <c r="A33" t="str">
         <v>ADURI JOSEPH REDDY</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="str">
+        <v>S6985606C</v>
+      </c>
+      <c r="C33">
         <v>90691526</v>
       </c>
-      <c r="C33" t="str">
+      <c r="D33" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -769,10 +939,13 @@
       <c r="A34" t="str">
         <v>AFFENDI ABD RAZAK</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="str">
+        <v>S1807915A</v>
+      </c>
+      <c r="C34">
         <v>97502579</v>
       </c>
-      <c r="C34" t="str">
+      <c r="D34" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -780,21 +953,27 @@
       <c r="A35" t="str">
         <v>AGNE RAMIL APUYA</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="str">
+        <v>S7562848Z</v>
+      </c>
+      <c r="C35">
         <v>90810325</v>
       </c>
-      <c r="C35" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D35" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
         <v xml:space="preserve">AGNES ANG SIEW GEK </v>
       </c>
-      <c r="B36">
+      <c r="B36" t="str">
+        <v>S1763765G</v>
+      </c>
+      <c r="C36">
         <v>97508009</v>
       </c>
-      <c r="C36" t="str">
+      <c r="D36" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -802,10 +981,13 @@
       <c r="A37" t="str">
         <v>AGNES GAN</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="str">
+        <v>S6870555Z</v>
+      </c>
+      <c r="C37">
         <v>97527443</v>
       </c>
-      <c r="C37" t="str">
+      <c r="D37" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -813,10 +995,13 @@
       <c r="A38" t="str">
         <v>AGUSTINUS GEORGE</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="str">
+        <v>S7973918I</v>
+      </c>
+      <c r="C38">
         <v>98538514</v>
       </c>
-      <c r="C38" t="str">
+      <c r="D38" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -824,10 +1009,13 @@
       <c r="A39" t="str">
         <v>AH AH KHOON RAYMOND</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="str">
+        <v>S1828661J</v>
+      </c>
+      <c r="C39">
         <v>97818368</v>
       </c>
-      <c r="C39" t="str">
+      <c r="D39" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -835,10 +1023,13 @@
       <c r="A40" t="str">
         <v>AHMAD B MAIDEEN</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="str">
+        <v>S0066745E</v>
+      </c>
+      <c r="C40">
         <v>98330479</v>
       </c>
-      <c r="C40" t="str">
+      <c r="D40" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -846,21 +1037,27 @@
       <c r="A41" t="str">
         <v>AHMAD BIN AWANG</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="str">
+        <v>S1715372B</v>
+      </c>
+      <c r="C41">
         <v>98752500</v>
       </c>
-      <c r="C41" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D41" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
         <v>AHMAD BIN SAID</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="str">
+        <v>S1199232C</v>
+      </c>
+      <c r="C42">
         <v>92711669</v>
       </c>
-      <c r="C42" t="str">
+      <c r="D42" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -868,10 +1065,13 @@
       <c r="A43" t="str">
         <v>AHMAD DANI BIN MOKHTAR</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="str">
+        <v>S6801843I</v>
+      </c>
+      <c r="C43">
         <v>96857141</v>
       </c>
-      <c r="C43" t="str">
+      <c r="D43" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -879,10 +1079,13 @@
       <c r="A44" t="str">
         <v xml:space="preserve">AHMAD NASIF </v>
       </c>
-      <c r="B44">
+      <c r="B44" t="str">
+        <v>S1421272F</v>
+      </c>
+      <c r="C44">
         <v>98343409</v>
       </c>
-      <c r="C44" t="str">
+      <c r="D44" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -890,10 +1093,13 @@
       <c r="A45" t="str">
         <v>AHUB BIN ABDUL MAJID</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="str">
+        <v>S7133236E</v>
+      </c>
+      <c r="C45">
         <v>98505153</v>
       </c>
-      <c r="C45" t="str">
+      <c r="D45" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -901,21 +1107,27 @@
       <c r="A46" t="str">
         <v>AIYAN SAMIYAPPA</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="str">
+        <v>S2719174F</v>
+      </c>
+      <c r="C46">
         <v>96979154</v>
       </c>
-      <c r="C46" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D46" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
         <v>AJAY KUSWAHA</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="str">
+        <v>S7579709E</v>
+      </c>
+      <c r="C47">
         <v>98735161</v>
       </c>
-      <c r="C47" t="str">
+      <c r="D47" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -923,21 +1135,27 @@
       <c r="A48" t="str">
         <v xml:space="preserve">AJAY SINGH </v>
       </c>
-      <c r="B48">
+      <c r="B48" t="str">
+        <v>S2723034B</v>
+      </c>
+      <c r="C48">
         <v>98290860</v>
       </c>
-      <c r="C48" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D48" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
         <v>ALAGAPPAN PALANIAPPAN</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="str">
+        <v>S7760917B</v>
+      </c>
+      <c r="C49">
         <v>81983240</v>
       </c>
-      <c r="C49" t="str">
+      <c r="D49" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -945,10 +1163,10 @@
       <c r="A50" t="str">
         <v>ALAN LEE</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>90095879</v>
       </c>
-      <c r="C50" t="str">
+      <c r="D50" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -956,10 +1174,13 @@
       <c r="A51" t="str">
         <v>ALAN LEE PANG BOON</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="str">
+        <v>S7142123F</v>
+      </c>
+      <c r="C51">
         <v>98758755</v>
       </c>
-      <c r="C51" t="str">
+      <c r="D51" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -967,10 +1188,13 @@
       <c r="A52" t="str">
         <v>ALAN YEO KWA YONG</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="str">
+        <v>S7879385F</v>
+      </c>
+      <c r="C52">
         <v>82883251</v>
       </c>
-      <c r="C52" t="str">
+      <c r="D52" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -978,10 +1202,10 @@
       <c r="A53" t="str">
         <v>ALBERT BERNARD</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>98374927</v>
       </c>
-      <c r="C53" t="str">
+      <c r="D53" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -989,10 +1213,10 @@
       <c r="A54" t="str">
         <v>ALDRICTJITEROSAMPURNO</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>90959524</v>
       </c>
-      <c r="C54" t="str">
+      <c r="D54" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1000,10 +1224,10 @@
       <c r="A55" t="str">
         <v>ALEC WEE</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>91000456</v>
       </c>
-      <c r="C55" t="str">
+      <c r="D55" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1011,10 +1235,13 @@
       <c r="A56" t="str">
         <v>ALEX TAN ERKAI</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="str">
+        <v>S8133410B</v>
+      </c>
+      <c r="C56">
         <v>96953512</v>
       </c>
-      <c r="C56" t="str">
+      <c r="D56" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1022,21 +1249,24 @@
       <c r="A57" t="str">
         <v>ALEXANDRA WONG</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="str">
+        <v>S1420645J</v>
+      </c>
+      <c r="C57">
         <v>97491873</v>
       </c>
-      <c r="C57" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D57" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
         <v>ALFRED</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>98489700</v>
       </c>
-      <c r="C58" t="str">
+      <c r="D58" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1044,43 +1274,49 @@
       <c r="A59" t="str">
         <v>ALIANI EVELYN TAMIN</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="str">
+        <v>S2701626Z</v>
+      </c>
+      <c r="C59">
         <v>98340650</v>
       </c>
-      <c r="C59" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D59" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
         <v>ALICE SEAH</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>96364469</v>
       </c>
-      <c r="C60" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D60" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
         <v>ALIMAH BTE LOB</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="str">
+        <v>S0110179E</v>
+      </c>
+      <c r="C61">
         <v>97488574</v>
       </c>
-      <c r="C61" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D61" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
         <v>ALVAN LEONG</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>90066998</v>
       </c>
-      <c r="C62" t="str">
+      <c r="D62" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1088,10 +1324,10 @@
       <c r="A63" t="str">
         <v>ALVIN NG</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>90285330</v>
       </c>
-      <c r="C63" t="str">
+      <c r="D63" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1099,10 +1335,13 @@
       <c r="A64" t="str">
         <v>ALVIN ONG KHENG SOON</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="str">
+        <v>S8176994Z</v>
+      </c>
+      <c r="C64">
         <v>82010186</v>
       </c>
-      <c r="C64" t="str">
+      <c r="D64" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1110,10 +1349,13 @@
       <c r="A65" t="str">
         <v xml:space="preserve">ALWYN AUGUSTINE LIM </v>
       </c>
-      <c r="B65">
+      <c r="B65" t="str">
+        <v>S72111AAC</v>
+      </c>
+      <c r="C65">
         <v>98281974</v>
       </c>
-      <c r="C65" t="str">
+      <c r="D65" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1121,10 +1363,13 @@
       <c r="A66" t="str">
         <v>AMIR BIN SULAIMAN</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="str">
+        <v>S8232946C</v>
+      </c>
+      <c r="C66">
         <v>94555920</v>
       </c>
-      <c r="C66" t="str">
+      <c r="D66" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1132,32 +1377,41 @@
       <c r="A67" t="str">
         <v>AMIT KUMAR SHARMA</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="str">
+        <v>S8025691D</v>
+      </c>
+      <c r="C67">
         <v>98510153</v>
       </c>
-      <c r="C67" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D67" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
         <v>AMY HII MING CHOO</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="str">
+        <v>S2638619E</v>
+      </c>
+      <c r="C68">
         <v>98715697</v>
       </c>
-      <c r="C68" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D68" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
         <v xml:space="preserve">AMY TNG </v>
       </c>
-      <c r="B69">
+      <c r="B69" t="str">
+        <v>S1357408A</v>
+      </c>
+      <c r="C69">
         <v>98426565</v>
       </c>
-      <c r="C69" t="str">
+      <c r="D69" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1165,10 +1419,10 @@
       <c r="A70" t="str">
         <v>ANDREW WONG</v>
       </c>
-      <c r="B70">
+      <c r="C70">
         <v>98181120</v>
       </c>
-      <c r="C70" t="str">
+      <c r="D70" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1176,10 +1430,13 @@
       <c r="A71" t="str">
         <v>ANDREW WONG CHIN YONG</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="str">
+        <v>S7530186C</v>
+      </c>
+      <c r="C71">
         <v>98421700</v>
       </c>
-      <c r="C71" t="str">
+      <c r="D71" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1187,10 +1444,13 @@
       <c r="A72" t="str">
         <v>ANDY SOH KOK HWEE</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="str">
+        <v>S7802476C</v>
+      </c>
+      <c r="C72">
         <v>91015546</v>
       </c>
-      <c r="C72" t="str">
+      <c r="D72" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1198,21 +1458,27 @@
       <c r="A73" t="str">
         <v>ANG CHEE HEONG</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="str">
+        <v>S7517979J</v>
+      </c>
+      <c r="C73">
         <v>98626937</v>
       </c>
-      <c r="C73" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D73" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
         <v>ANG CHEE MYANG ADELINE</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="str">
+        <v>S6945328G</v>
+      </c>
+      <c r="C74">
         <v>96972996</v>
       </c>
-      <c r="C74" t="str">
+      <c r="D74" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1220,10 +1486,13 @@
       <c r="A75" t="str">
         <v>ANG CHOON HUA JORDON</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="str">
+        <v>S7505587J</v>
+      </c>
+      <c r="C75">
         <v>97475587</v>
       </c>
-      <c r="C75" t="str">
+      <c r="D75" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1231,10 +1500,13 @@
       <c r="A76" t="str">
         <v>ANG CHOON TECK</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="str">
+        <v>S1552739J</v>
+      </c>
+      <c r="C76">
         <v>97438700</v>
       </c>
-      <c r="C76" t="str">
+      <c r="D76" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1242,10 +1514,13 @@
       <c r="A77" t="str">
         <v>ANG CHOR LENG</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="str">
+        <v>S1638415A</v>
+      </c>
+      <c r="C77">
         <v>97833360</v>
       </c>
-      <c r="C77" t="str">
+      <c r="D77" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1253,32 +1528,41 @@
       <c r="A78" t="str">
         <v>ANG ENG LAY CATHERINE</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="str">
+        <v>S1570292C</v>
+      </c>
+      <c r="C78">
         <v>98758488</v>
       </c>
-      <c r="C78" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D78" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
         <v>ANG ENG SEONG</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="str">
+        <v>S7217764I</v>
+      </c>
+      <c r="C79">
         <v>97494896</v>
       </c>
-      <c r="C79" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D79" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
         <v>ANG GIM THENG RACHEL</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="str">
+        <v>S7018496F</v>
+      </c>
+      <c r="C80">
         <v>96260505</v>
       </c>
-      <c r="C80" t="str">
+      <c r="D80" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1286,10 +1570,13 @@
       <c r="A81" t="str">
         <v>ANG HONG KIAT</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="str">
+        <v>S1664230D</v>
+      </c>
+      <c r="C81">
         <v>97922319</v>
       </c>
-      <c r="C81" t="str">
+      <c r="D81" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1297,10 +1584,13 @@
       <c r="A82" t="str">
         <v>ANG HUI FEN</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="str">
+        <v>S7708289A</v>
+      </c>
+      <c r="C82">
         <v>96178550</v>
       </c>
-      <c r="C82" t="str">
+      <c r="D82" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1308,10 +1598,13 @@
       <c r="A83" t="str">
         <v>ANG HWEE KHENG CECILIA</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="str">
+        <v>S1776581G</v>
+      </c>
+      <c r="C83">
         <v>97486933</v>
       </c>
-      <c r="C83" t="str">
+      <c r="D83" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1319,21 +1612,27 @@
       <c r="A84" t="str">
         <v>ANG KAH HIN</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="str">
+        <v>S0200683I</v>
+      </c>
+      <c r="C84">
         <v>97517480</v>
       </c>
-      <c r="C84" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D84" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
         <v>ANG KENG HOCK</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="str">
+        <v>S6939543J</v>
+      </c>
+      <c r="C85">
         <v>98386429</v>
       </c>
-      <c r="C85" t="str">
+      <c r="D85" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1341,21 +1640,27 @@
       <c r="A86" t="str">
         <v>ANG KIAN SOON</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="str">
+        <v>S8318578C</v>
+      </c>
+      <c r="C86">
         <v>98287936</v>
       </c>
-      <c r="C86" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D86" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
         <v xml:space="preserve">ANG KIAN TUN </v>
       </c>
-      <c r="B87">
+      <c r="B87" t="str">
+        <v>S7423811D</v>
+      </c>
+      <c r="C87">
         <v>98456793</v>
       </c>
-      <c r="C87" t="str">
+      <c r="D87" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1363,10 +1668,13 @@
       <c r="A88" t="str">
         <v>ANG KIM LENG</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="str">
+        <v>S7509893F</v>
+      </c>
+      <c r="C88">
         <v>98421859</v>
       </c>
-      <c r="C88" t="str">
+      <c r="D88" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1374,10 +1682,13 @@
       <c r="A89" t="str">
         <v>ANG KIM TIAN</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="str">
+        <v>S6924718J</v>
+      </c>
+      <c r="C89">
         <v>98755788</v>
       </c>
-      <c r="C89" t="str">
+      <c r="D89" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1385,10 +1696,13 @@
       <c r="A90" t="str">
         <v>ANG KOH KENG</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="str">
+        <v>S1739741I</v>
+      </c>
+      <c r="C90">
         <v>98581505</v>
       </c>
-      <c r="C90" t="str">
+      <c r="D90" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1396,32 +1710,41 @@
       <c r="A91" t="str">
         <v>ANG KOK BOON</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="str">
+        <v>S7224405J</v>
+      </c>
+      <c r="C91">
         <v>97530084</v>
       </c>
-      <c r="C91" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D91" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
         <v>ANG KOK KIONG</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="str">
+        <v>S7141150H</v>
+      </c>
+      <c r="C92">
         <v>97479586</v>
       </c>
-      <c r="C92" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D92" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
         <v>ANG LAI TIONG VICTOR</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="str">
+        <v>S1364318J</v>
+      </c>
+      <c r="C93">
         <v>98552688</v>
       </c>
-      <c r="C93" t="str">
+      <c r="D93" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1429,32 +1752,41 @@
       <c r="A94" t="str">
         <v>ANG LI MIN</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="str">
+        <v>S8412364A</v>
+      </c>
+      <c r="C94">
         <v>98735283</v>
       </c>
-      <c r="C94" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D94" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
         <v>ANG LIP CHIN</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="str">
+        <v>S7440329H</v>
+      </c>
+      <c r="C95">
         <v>98577760</v>
       </c>
-      <c r="C95" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D95" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
         <v>ANG MIA MENG</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="str">
+        <v>S1174326I</v>
+      </c>
+      <c r="C96">
         <v>90281457</v>
       </c>
-      <c r="C96" t="str">
+      <c r="D96" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1462,21 +1794,27 @@
       <c r="A97" t="str">
         <v>ANG PEI SEE</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="str">
+        <v>S7505901I</v>
+      </c>
+      <c r="C97">
         <v>90186941</v>
       </c>
-      <c r="C97" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D97" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
         <v xml:space="preserve">ANG PENG HAI </v>
       </c>
-      <c r="B98">
+      <c r="B98" t="str">
+        <v>S7025160D</v>
+      </c>
+      <c r="C98">
         <v>98436609</v>
       </c>
-      <c r="C98" t="str">
+      <c r="D98" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1484,10 +1822,13 @@
       <c r="A99" t="str">
         <v>ANG PENG SIONG ALAN</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="str">
+        <v>S7129179J</v>
+      </c>
+      <c r="C99">
         <v>97479179</v>
       </c>
-      <c r="C99" t="str">
+      <c r="D99" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1495,10 +1836,13 @@
       <c r="A100" t="str">
         <v>ANG SOON PENG</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="str">
+        <v>S0117953E</v>
+      </c>
+      <c r="C100">
         <v>98629971</v>
       </c>
-      <c r="C100" t="str">
+      <c r="D100" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1506,10 +1850,13 @@
       <c r="A101" t="str">
         <v>ANG TENG HAI</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="str">
+        <v>S0862969B</v>
+      </c>
+      <c r="C101">
         <v>98292779</v>
       </c>
-      <c r="C101" t="str">
+      <c r="D101" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1517,10 +1864,13 @@
       <c r="A102" t="str">
         <v>ANG TSU WEI EMILYN</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="str">
+        <v>S8041316E</v>
+      </c>
+      <c r="C102">
         <v>93804098</v>
       </c>
-      <c r="C102" t="str">
+      <c r="D102" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1528,10 +1878,10 @@
       <c r="A103" t="str">
         <v>ANGELA CHOO</v>
       </c>
-      <c r="B103">
+      <c r="C103">
         <v>96622298</v>
       </c>
-      <c r="C103" t="str">
+      <c r="D103" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1539,10 +1889,13 @@
       <c r="A104" t="str">
         <v>ANGELA TAN YAN FENG</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="str">
+        <v>S8029619C</v>
+      </c>
+      <c r="C104">
         <v>97610746</v>
       </c>
-      <c r="C104" t="str">
+      <c r="D104" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1550,10 +1903,13 @@
       <c r="A105" t="str">
         <v>ANGELINA PEH</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="str">
+        <v>S1656967D</v>
+      </c>
+      <c r="C105">
         <v>98786112</v>
       </c>
-      <c r="C105" t="str">
+      <c r="D105" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1561,10 +1917,13 @@
       <c r="A106" t="str">
         <v>ANGELINE LEE</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="str">
+        <v>S1777066</v>
+      </c>
+      <c r="C106">
         <v>98718471</v>
       </c>
-      <c r="C106" t="str">
+      <c r="D106" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1572,10 +1931,13 @@
       <c r="A107" t="str">
         <v>ANGELINE TANG</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="str">
+        <v>S6941862G</v>
+      </c>
+      <c r="C107">
         <v>98399280</v>
       </c>
-      <c r="C107" t="str">
+      <c r="D107" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1583,32 +1945,38 @@
       <c r="A108" t="str">
         <v>ANIIE TEO BEE LAY</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="str">
+        <v>S1466467Z</v>
+      </c>
+      <c r="C108">
         <v>98731677</v>
       </c>
-      <c r="C108" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D108" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
         <v>ANJAN NARAYAN ROY</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="str">
+        <v>S7179154H</v>
+      </c>
+      <c r="C109">
         <v>98426161</v>
       </c>
-      <c r="C109" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D109" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
         <v>ANNA LAM</v>
       </c>
-      <c r="B110">
+      <c r="C110">
         <v>92473800</v>
       </c>
-      <c r="C110" t="str">
+      <c r="D110" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1616,21 +1984,27 @@
       <c r="A111" t="str">
         <v>ANNABELLE SIAN</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="str">
+        <v>S7213247E</v>
+      </c>
+      <c r="C111">
         <v>98353790</v>
       </c>
-      <c r="C111" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D111" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
         <v>ANNIE ONG WING HUEN</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="str">
+        <v>S7570488G</v>
+      </c>
+      <c r="C112">
         <v>98566966</v>
       </c>
-      <c r="C112" t="str">
+      <c r="D112" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1638,10 +2012,13 @@
       <c r="A113" t="str">
         <v>ANNUR BASHEER HIDAYA</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="str">
+        <v>S2692641G</v>
+      </c>
+      <c r="C113">
         <v>98753540</v>
       </c>
-      <c r="C113" t="str">
+      <c r="D113" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1649,10 +2026,13 @@
       <c r="A114" t="str">
         <v>ANTHONY TAN</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="str">
+        <v>S2664373E</v>
+      </c>
+      <c r="C114">
         <v>91288447</v>
       </c>
-      <c r="C114" t="str">
+      <c r="D114" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1660,10 +2040,13 @@
       <c r="A115" t="str">
         <v>APRIL LIM</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="str">
+        <v>S1412509D</v>
+      </c>
+      <c r="C115">
         <v>98388319</v>
       </c>
-      <c r="C115" t="str">
+      <c r="D115" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1671,10 +2054,13 @@
       <c r="A116" t="str">
         <v>ARIEF CHANDRA</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="str">
+        <v>S8285658G</v>
+      </c>
+      <c r="C116">
         <v>91245580</v>
       </c>
-      <c r="C116" t="str">
+      <c r="D116" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1682,10 +2068,13 @@
       <c r="A117" t="str">
         <v>ARISFADILAH BIN ABUNAIM</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="str">
+        <v>S7122736G</v>
+      </c>
+      <c r="C117">
         <v>97498364</v>
       </c>
-      <c r="C117" t="str">
+      <c r="D117" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1693,10 +2082,13 @@
       <c r="A118" t="str">
         <v>ARJUNAN VASANTHAN</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="str">
+        <v>S7006461H</v>
+      </c>
+      <c r="C118">
         <v>81251356</v>
       </c>
-      <c r="C118" t="str">
+      <c r="D118" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1704,10 +2096,13 @@
       <c r="A119" t="str">
         <v>ASHISH VINOH LODHAVIN</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="str">
+        <v>S7382208D</v>
+      </c>
+      <c r="C119">
         <v>98324979</v>
       </c>
-      <c r="C119" t="str">
+      <c r="D119" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1715,10 +2110,13 @@
       <c r="A120" t="str">
         <v>ASRUL NIZAM BIN AHMADNI</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="str">
+        <v>S7508639C</v>
+      </c>
+      <c r="C120">
         <v>98502140</v>
       </c>
-      <c r="C120" t="str">
+      <c r="D120" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1726,10 +2124,13 @@
       <c r="A121" t="str">
         <v xml:space="preserve">ASUIR BIN MOHAMED </v>
       </c>
-      <c r="B121">
+      <c r="B121" t="str">
+        <v>S1453697C</v>
+      </c>
+      <c r="C121">
         <v>98297941</v>
       </c>
-      <c r="C121" t="str">
+      <c r="D121" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1737,10 +2138,13 @@
       <c r="A122" t="str">
         <v>ATIENZA NOEL CLERIGO</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="str">
+        <v>S7166288H</v>
+      </c>
+      <c r="C122">
         <v>91785053</v>
       </c>
-      <c r="C122" t="str">
+      <c r="D122" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1748,32 +2152,35 @@
       <c r="A123" t="str">
         <v>AU CHIN TEW</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="str">
+        <v>S8007083G</v>
+      </c>
+      <c r="C123">
         <v>98738517</v>
       </c>
-      <c r="C123" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D123" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
         <v>AUDREY</v>
       </c>
-      <c r="B124">
+      <c r="C124">
         <v>94350606</v>
       </c>
-      <c r="C124" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D124" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
         <v>AUGUSTINE</v>
       </c>
-      <c r="B125">
+      <c r="C125">
         <v>96759150</v>
       </c>
-      <c r="C125" t="str">
+      <c r="D125" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1781,10 +2188,13 @@
       <c r="A126" t="str">
         <v>AUGUSTINE NG</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="str">
+        <v>S2657510I</v>
+      </c>
+      <c r="C126">
         <v>98628316</v>
       </c>
-      <c r="C126" t="str">
+      <c r="D126" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1792,10 +2202,13 @@
       <c r="A127" t="str">
         <v>AUW KUM LEE</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="str">
+        <v>S1503941H</v>
+      </c>
+      <c r="C127">
         <v>97389549</v>
       </c>
-      <c r="C127" t="str">
+      <c r="D127" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1803,10 +2216,13 @@
       <c r="A128" t="str">
         <v>AW ALVIN</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="str">
+        <v>S7221424B</v>
+      </c>
+      <c r="C128">
         <v>97497767</v>
       </c>
-      <c r="C128" t="str">
+      <c r="D128" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1814,10 +2230,13 @@
       <c r="A129" t="str">
         <v>AW CHEE MING ALVIN</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="str">
+        <v>S6930292J</v>
+      </c>
+      <c r="C129">
         <v>98338233</v>
       </c>
-      <c r="C129" t="str">
+      <c r="D129" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1825,10 +2244,13 @@
       <c r="A130" t="str">
         <v>AW EE HOON</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="str">
+        <v>S1578795C</v>
+      </c>
+      <c r="C130">
         <v>96390577</v>
       </c>
-      <c r="C130" t="str">
+      <c r="D130" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1836,10 +2258,13 @@
       <c r="A131" t="str">
         <v>AW SOO CHEONG</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="str">
+        <v>S16449676H</v>
+      </c>
+      <c r="C131">
         <v>97523760</v>
       </c>
-      <c r="C131" t="str">
+      <c r="D131" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1847,10 +2272,13 @@
       <c r="A132" t="str">
         <v>AW WEI CHING</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="str">
+        <v>S6916233I</v>
+      </c>
+      <c r="C132">
         <v>98535400</v>
       </c>
-      <c r="C132" t="str">
+      <c r="D132" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1858,10 +2286,13 @@
       <c r="A133" t="str">
         <v>AWE YUEN CHEONG SIMON</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="str">
+        <v>S1801752J</v>
+      </c>
+      <c r="C133">
         <v>97554388</v>
       </c>
-      <c r="C133" t="str">
+      <c r="D133" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1869,10 +2300,13 @@
       <c r="A134" t="str">
         <v>AZARRUDDIN B JAMIL</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="str">
+        <v>S2182933A</v>
+      </c>
+      <c r="C134">
         <v>98364912</v>
       </c>
-      <c r="C134" t="str">
+      <c r="D134" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1880,10 +2314,13 @@
       <c r="A135" t="str">
         <v>AZLIN BTE ABU HAT</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="str">
+        <v>S7200963J</v>
+      </c>
+      <c r="C135">
         <v>97531054</v>
       </c>
-      <c r="C135" t="str">
+      <c r="D135" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1891,10 +2328,10 @@
       <c r="A136" t="str">
         <v>AZNI</v>
       </c>
-      <c r="B136">
+      <c r="C136">
         <v>90606235</v>
       </c>
-      <c r="C136" t="str">
+      <c r="D136" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1902,10 +2339,13 @@
       <c r="A137" t="str">
         <v>AZRIN SHAH BIN ALIAS</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="str">
+        <v>S7408553I</v>
+      </c>
+      <c r="C137">
         <v>93652546</v>
       </c>
-      <c r="C137" t="str">
+      <c r="D137" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1913,10 +2353,13 @@
       <c r="A138" t="str">
         <v xml:space="preserve">BABU DHANALAKSHMI </v>
       </c>
-      <c r="B138">
+      <c r="B138" t="str">
+        <v>S7582597H</v>
+      </c>
+      <c r="C138">
         <v>98307082</v>
       </c>
-      <c r="C138" t="str">
+      <c r="D138" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1924,32 +2367,38 @@
       <c r="A139" t="str">
         <v>BALA SHANKER</v>
       </c>
-      <c r="B139">
+      <c r="C139">
         <v>91823934</v>
       </c>
-      <c r="C139" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D139" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
         <v>BALA SUNDARAM MOHAN RAJ</v>
       </c>
-      <c r="B140">
+      <c r="B140" t="str">
+        <v>S6865804G</v>
+      </c>
+      <c r="C140">
         <v>93766678</v>
       </c>
-      <c r="C140" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D140" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
         <v>BALASUBRAMANIAN</v>
       </c>
-      <c r="B141">
+      <c r="B141" t="str">
+        <v>S6984935J</v>
+      </c>
+      <c r="C141">
         <v>98592053</v>
       </c>
-      <c r="C141" t="str">
+      <c r="D141" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1957,10 +2406,10 @@
       <c r="A142" t="str">
         <v>BALVINDER SANDHU</v>
       </c>
-      <c r="B142">
+      <c r="C142">
         <v>97994905</v>
       </c>
-      <c r="C142" t="str">
+      <c r="D142" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -1968,32 +2417,38 @@
       <c r="A143" t="str">
         <v xml:space="preserve">BALVINDER SINGH </v>
       </c>
-      <c r="B143">
+      <c r="B143" t="str">
+        <v>S6805095B</v>
+      </c>
+      <c r="C143">
         <v>98592001</v>
       </c>
-      <c r="C143" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D143" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
         <v>BANI FAIZAL</v>
       </c>
-      <c r="B144">
+      <c r="C144">
         <v>94555589</v>
       </c>
-      <c r="C144" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D144" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
         <v>BATCHELOR MARY ANN</v>
       </c>
-      <c r="B145">
+      <c r="B145" t="str">
+        <v>S6804228C</v>
+      </c>
+      <c r="C145">
         <v>96661915</v>
       </c>
-      <c r="C145" t="str">
+      <c r="D145" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2001,10 +2456,13 @@
       <c r="A146" t="str">
         <v>BEDE NAOMAL RAMESH ILLEPERUMA PERERA</v>
       </c>
-      <c r="B146">
+      <c r="B146" t="str">
+        <v>S2689192B</v>
+      </c>
+      <c r="C146">
         <v>93623087</v>
       </c>
-      <c r="C146" t="str">
+      <c r="D146" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2012,10 +2470,13 @@
       <c r="A147" t="str">
         <v>BEH SZE BOON</v>
       </c>
-      <c r="B147">
+      <c r="B147" t="str">
+        <v>S7008805C</v>
+      </c>
+      <c r="C147">
         <v>98254650</v>
       </c>
-      <c r="C147" t="str">
+      <c r="D147" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2023,10 +2484,13 @@
       <c r="A148" t="str">
         <v>BEK KOK YEONG</v>
       </c>
-      <c r="B148">
+      <c r="B148" t="str">
+        <v>S1509990J</v>
+      </c>
+      <c r="C148">
         <v>98622375</v>
       </c>
-      <c r="C148" t="str">
+      <c r="D148" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2034,10 +2498,10 @@
       <c r="A149" t="str">
         <v>BEN</v>
       </c>
-      <c r="B149">
+      <c r="C149">
         <v>98467164</v>
       </c>
-      <c r="C149" t="str">
+      <c r="D149" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2045,10 +2509,13 @@
       <c r="A150" t="str">
         <v>BEN TANG</v>
       </c>
-      <c r="B150">
+      <c r="B150" t="str">
+        <v>S1484760Z</v>
+      </c>
+      <c r="C150">
         <v>97558788</v>
       </c>
-      <c r="C150" t="str">
+      <c r="D150" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2056,10 +2523,13 @@
       <c r="A151" t="str">
         <v>BENG SUI LENG</v>
       </c>
-      <c r="B151">
+      <c r="B151" t="str">
+        <v xml:space="preserve">S6927118I </v>
+      </c>
+      <c r="C151">
         <v>98299087</v>
       </c>
-      <c r="C151" t="str">
+      <c r="D151" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2067,10 +2537,13 @@
       <c r="A152" t="str">
         <v>BENJAMIN CHUA AIK HUAN</v>
       </c>
-      <c r="B152">
+      <c r="B152" t="str">
+        <v>S7967685D</v>
+      </c>
+      <c r="C152">
         <v>97476902</v>
       </c>
-      <c r="C152" t="str">
+      <c r="D152" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2078,10 +2551,13 @@
       <c r="A153" t="str">
         <v xml:space="preserve">BENJAMIN TAN HUA SENG </v>
       </c>
-      <c r="B153">
+      <c r="B153" t="str">
+        <v>S7247723E</v>
+      </c>
+      <c r="C153">
         <v>98466654</v>
       </c>
-      <c r="C153" t="str">
+      <c r="D153" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2089,10 +2565,13 @@
       <c r="A154" t="str">
         <v>BENNARD YAP</v>
       </c>
-      <c r="B154">
+      <c r="B154" t="str">
+        <v>S7439896J</v>
+      </c>
+      <c r="C154">
         <v>98757632</v>
       </c>
-      <c r="C154" t="str">
+      <c r="D154" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2100,54 +2579,60 @@
       <c r="A155" t="str">
         <v>BENSON MAH HOCK ONN</v>
       </c>
-      <c r="B155">
+      <c r="B155" t="str">
+        <v>S7600915E</v>
+      </c>
+      <c r="C155">
         <v>98776990</v>
       </c>
-      <c r="C155" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D155" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
         <v>BERNARD CHUA</v>
       </c>
-      <c r="B156">
+      <c r="C156">
         <v>98339673</v>
       </c>
-      <c r="C156" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D156" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
         <v>BERNARD GOH CHUN KIAT</v>
       </c>
-      <c r="B157">
+      <c r="B157" t="str">
+        <v>S6830742J</v>
+      </c>
+      <c r="C157">
         <v>98715955</v>
       </c>
-      <c r="C157" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D157" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
         <v>BERNICE</v>
       </c>
-      <c r="B158">
+      <c r="C158">
         <v>96335917</v>
       </c>
-      <c r="C158" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D158" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
         <v>BERNICE CHAN</v>
       </c>
-      <c r="B159">
+      <c r="C159">
         <v>97427641</v>
       </c>
-      <c r="C159" t="str">
+      <c r="D159" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2155,10 +2640,13 @@
       <c r="A160" t="str">
         <v>BESSERER MARC OLIVIER</v>
       </c>
-      <c r="B160">
+      <c r="B160" t="str">
+        <v>S2721001E</v>
+      </c>
+      <c r="C160">
         <v>98246474</v>
       </c>
-      <c r="C160" t="str">
+      <c r="D160" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2166,10 +2654,13 @@
       <c r="A161" t="str">
         <v>BEY LI HONG</v>
       </c>
-      <c r="B161">
+      <c r="B161" t="str">
+        <v>S7217082B</v>
+      </c>
+      <c r="C161">
         <v>97903203</v>
       </c>
-      <c r="C161" t="str">
+      <c r="D161" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2177,10 +2668,13 @@
       <c r="A162" t="str">
         <v>BHAVNA PRAKASH KHEMLANI @SANGEETA HIRANAND PUNJABI</v>
       </c>
-      <c r="B162">
+      <c r="B162" t="str">
+        <v>S1778988J</v>
+      </c>
+      <c r="C162">
         <v>97901010</v>
       </c>
-      <c r="C162" t="str">
+      <c r="D162" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2188,10 +2682,10 @@
       <c r="A163" t="str">
         <v>BOEY WAI CHU</v>
       </c>
-      <c r="B163">
+      <c r="C163">
         <v>97407393</v>
       </c>
-      <c r="C163" t="str">
+      <c r="D163" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2199,10 +2693,13 @@
       <c r="A164" t="str">
         <v>BOEY WAI LING</v>
       </c>
-      <c r="B164">
+      <c r="B164" t="str">
+        <v>S6818984E</v>
+      </c>
+      <c r="C164">
         <v>98629689</v>
       </c>
-      <c r="C164" t="str">
+      <c r="D164" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2210,21 +2707,27 @@
       <c r="A165" t="str">
         <v>BONG BUI NAM JAMES</v>
       </c>
-      <c r="B165">
+      <c r="B165" t="str">
+        <v>S7373320J</v>
+      </c>
+      <c r="C165">
         <v>98775048</v>
       </c>
-      <c r="C165" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D165" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
         <v>BONG SHIAK HON</v>
       </c>
-      <c r="B166">
+      <c r="B166" t="str">
+        <v>S7571694Z</v>
+      </c>
+      <c r="C166">
         <v>98566620</v>
       </c>
-      <c r="C166" t="str">
+      <c r="D166" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2232,10 +2735,13 @@
       <c r="A167" t="str">
         <v>BOO CHONG HAN</v>
       </c>
-      <c r="B167">
+      <c r="B167" t="str">
+        <v>S7034633H</v>
+      </c>
+      <c r="C167">
         <v>98522186</v>
       </c>
-      <c r="C167" t="str">
+      <c r="D167" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2243,10 +2749,13 @@
       <c r="A168" t="str">
         <v xml:space="preserve">BOO KENG CHIAU </v>
       </c>
-      <c r="B168">
+      <c r="B168" t="str">
+        <v>S0002478C</v>
+      </c>
+      <c r="C168">
         <v>98320114</v>
       </c>
-      <c r="C168" t="str">
+      <c r="D168" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2254,10 +2763,13 @@
       <c r="A169" t="str">
         <v>BOO KIAH JOO PATRICK</v>
       </c>
-      <c r="B169">
+      <c r="B169" t="str">
+        <v>S751606I</v>
+      </c>
+      <c r="C169">
         <v>98457455</v>
       </c>
-      <c r="C169" t="str">
+      <c r="D169" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2265,10 +2777,10 @@
       <c r="A170" t="str">
         <v>BRAYAN LAI</v>
       </c>
-      <c r="B170">
+      <c r="C170">
         <v>96580770</v>
       </c>
-      <c r="C170" t="str">
+      <c r="D170" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2276,10 +2788,13 @@
       <c r="A171" t="str">
         <v xml:space="preserve">BUAN YI HUEY </v>
       </c>
-      <c r="B171">
+      <c r="B171" t="str">
+        <v>S7974028F</v>
+      </c>
+      <c r="C171">
         <v>98288350</v>
       </c>
-      <c r="C171" t="str">
+      <c r="D171" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2287,10 +2802,10 @@
       <c r="A172" t="str">
         <v>C.H. LAI</v>
       </c>
-      <c r="B172">
+      <c r="C172">
         <v>90116210</v>
       </c>
-      <c r="C172" t="str">
+      <c r="D172" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2298,21 +2813,27 @@
       <c r="A173" t="str">
         <v>CAI SHILEI</v>
       </c>
-      <c r="B173">
+      <c r="B173" t="str">
+        <v>S8424597F</v>
+      </c>
+      <c r="C173">
         <v>94891445</v>
       </c>
-      <c r="C173" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D173" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
         <v>CAI YIJIA ALICIA</v>
       </c>
-      <c r="B174">
+      <c r="B174" t="str">
+        <v>S8340821I</v>
+      </c>
+      <c r="C174">
         <v>90288425</v>
       </c>
-      <c r="C174" t="str">
+      <c r="D174" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2320,10 +2841,10 @@
       <c r="A175" t="str">
         <v>CALAISELVY</v>
       </c>
-      <c r="B175">
+      <c r="C175">
         <v>96409303</v>
       </c>
-      <c r="C175" t="str">
+      <c r="D175" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2331,10 +2852,13 @@
       <c r="A176" t="str">
         <v>CALEB CHEANG</v>
       </c>
-      <c r="B176">
+      <c r="B176" t="str">
+        <v>S1773277C</v>
+      </c>
+      <c r="C176">
         <v>97541635</v>
       </c>
-      <c r="C176" t="str">
+      <c r="D176" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2342,10 +2866,10 @@
       <c r="A177" t="str">
         <v>CALVIN XIE</v>
       </c>
-      <c r="B177">
+      <c r="C177">
         <v>98554319</v>
       </c>
-      <c r="C177" t="str">
+      <c r="D177" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2353,21 +2877,27 @@
       <c r="A178" t="str">
         <v>CAPTAIN MELVIN</v>
       </c>
-      <c r="B178">
+      <c r="B178" t="str">
+        <v>S7478991I</v>
+      </c>
+      <c r="C178">
         <v>98362838</v>
       </c>
-      <c r="C178" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D178" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
         <v>CARLENE SEE SIEW CHING</v>
       </c>
-      <c r="B179">
+      <c r="B179" t="str">
+        <v>S7225146F</v>
+      </c>
+      <c r="C179">
         <v>97477736</v>
       </c>
-      <c r="C179" t="str">
+      <c r="D179" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2375,10 +2905,13 @@
       <c r="A180" t="str">
         <v>CAROLINE LIEW</v>
       </c>
-      <c r="B180">
+      <c r="B180" t="str">
+        <v>S1457382H</v>
+      </c>
+      <c r="C180">
         <v>98332259</v>
       </c>
-      <c r="C180" t="str">
+      <c r="D180" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2386,10 +2919,10 @@
       <c r="A181" t="str">
         <v>CASS CHOONG</v>
       </c>
-      <c r="B181">
+      <c r="C181">
         <v>90266277</v>
       </c>
-      <c r="C181" t="str">
+      <c r="D181" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2397,10 +2930,13 @@
       <c r="A182" t="str">
         <v>CHAI PEI PEI</v>
       </c>
-      <c r="B182">
+      <c r="B182" t="str">
+        <v>S7478325B</v>
+      </c>
+      <c r="C182">
         <v>97469616</v>
       </c>
-      <c r="C182" t="str">
+      <c r="D182" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2408,10 +2944,13 @@
       <c r="A183" t="str">
         <v>CHAI SAN HER</v>
       </c>
-      <c r="B183">
+      <c r="B183" t="str">
+        <v>S7372628Z</v>
+      </c>
+      <c r="C183">
         <v>92713305</v>
       </c>
-      <c r="C183" t="str">
+      <c r="D183" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2419,10 +2958,13 @@
       <c r="A184" t="str">
         <v>CHAI SIEW KING</v>
       </c>
-      <c r="B184">
+      <c r="B184" t="str">
+        <v>S1427337I</v>
+      </c>
+      <c r="C184">
         <v>90282760</v>
       </c>
-      <c r="C184" t="str">
+      <c r="D184" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2430,10 +2972,13 @@
       <c r="A185" t="str">
         <v>CHAI SIOW CHIN</v>
       </c>
-      <c r="B185">
+      <c r="B185" t="str">
+        <v>S7472162A</v>
+      </c>
+      <c r="C185">
         <v>98579841</v>
       </c>
-      <c r="C185" t="str">
+      <c r="D185" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2441,10 +2986,13 @@
       <c r="A186" t="str">
         <v>CHAM LEE KHIM</v>
       </c>
-      <c r="B186">
+      <c r="B186" t="str">
+        <v>S1597347A</v>
+      </c>
+      <c r="C186">
         <v>97396514</v>
       </c>
-      <c r="C186" t="str">
+      <c r="D186" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2452,10 +3000,13 @@
       <c r="A187" t="str">
         <v>CHAN CHEE CHUNG</v>
       </c>
-      <c r="B187">
+      <c r="B187" t="str">
+        <v>S2557522I</v>
+      </c>
+      <c r="C187">
         <v>98582480</v>
       </c>
-      <c r="C187" t="str">
+      <c r="D187" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2463,10 +3014,10 @@
       <c r="A188" t="str">
         <v>CHAN CHEE KONG</v>
       </c>
-      <c r="B188">
+      <c r="C188">
         <v>97395761</v>
       </c>
-      <c r="C188" t="str">
+      <c r="D188" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2474,10 +3025,13 @@
       <c r="A189" t="str">
         <v>CHAN CHENG TENG</v>
       </c>
-      <c r="B189">
+      <c r="B189" t="str">
+        <v>S1621472H</v>
+      </c>
+      <c r="C189">
         <v>96494169</v>
       </c>
-      <c r="C189" t="str">
+      <c r="D189" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2485,10 +3039,13 @@
       <c r="A190" t="str">
         <v xml:space="preserve">CHAN CHEOW HWA </v>
       </c>
-      <c r="B190">
+      <c r="B190" t="str">
+        <v>S7500087A</v>
+      </c>
+      <c r="C190">
         <v>97500205</v>
       </c>
-      <c r="C190" t="str">
+      <c r="D190" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2496,10 +3053,13 @@
       <c r="A191" t="str">
         <v>CHAN CHOI PING</v>
       </c>
-      <c r="B191">
+      <c r="B191" t="str">
+        <v>S6816774D</v>
+      </c>
+      <c r="C191">
         <v>98422703</v>
       </c>
-      <c r="C191" t="str">
+      <c r="D191" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2507,10 +3067,13 @@
       <c r="A192" t="str">
         <v>CHAN CHOY MUN</v>
       </c>
-      <c r="B192">
+      <c r="B192" t="str">
+        <v>S7163063C</v>
+      </c>
+      <c r="C192">
         <v>98951028</v>
       </c>
-      <c r="C192" t="str">
+      <c r="D192" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2518,10 +3081,13 @@
       <c r="A193" t="str">
         <v xml:space="preserve">CHAN HO KEONG </v>
       </c>
-      <c r="B193">
+      <c r="B193" t="str">
+        <v>S7318578E</v>
+      </c>
+      <c r="C193">
         <v>98332567</v>
       </c>
-      <c r="C193" t="str">
+      <c r="D193" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2529,10 +3095,13 @@
       <c r="A194" t="str">
         <v>CHAN HSIOW WEI</v>
       </c>
-      <c r="B194">
+      <c r="B194" t="str">
+        <v>S7316118E</v>
+      </c>
+      <c r="C194">
         <v>98789588</v>
       </c>
-      <c r="C194" t="str">
+      <c r="D194" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2540,10 +3109,13 @@
       <c r="A195" t="str">
         <v>CHAN HUI LING JASON</v>
       </c>
-      <c r="B195">
+      <c r="B195" t="str">
+        <v>S6824553B</v>
+      </c>
+      <c r="C195">
         <v>98630667</v>
       </c>
-      <c r="C195" t="str">
+      <c r="D195" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2551,21 +3123,24 @@
       <c r="A196" t="str">
         <v>CHAN HUI TIANG</v>
       </c>
-      <c r="B196">
+      <c r="B196" t="str">
+        <v>S1228422E</v>
+      </c>
+      <c r="C196">
         <v>97473568</v>
       </c>
-      <c r="C196" t="str">
-        <v>WhatsApp Number</v>
+      <c r="D196" t="str">
+        <v>Not a WhatsApp Number</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
         <v>CHAN HWEE JIN JOYCE</v>
       </c>
-      <c r="B197">
+      <c r="C197">
         <v>96698789</v>
       </c>
-      <c r="C197" t="str">
+      <c r="D197" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2573,10 +3148,13 @@
       <c r="A198" t="str">
         <v>CHAN HWEE PING</v>
       </c>
-      <c r="B198">
+      <c r="B198" t="str">
+        <v>S1740648E</v>
+      </c>
+      <c r="C198">
         <v>97883779</v>
       </c>
-      <c r="C198" t="str">
+      <c r="D198" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2584,10 +3162,13 @@
       <c r="A199" t="str">
         <v xml:space="preserve">CHAN KOK SENG </v>
       </c>
-      <c r="B199">
+      <c r="B199" t="str">
+        <v>S7125373B</v>
+      </c>
+      <c r="C199">
         <v>98269100</v>
       </c>
-      <c r="C199" t="str">
+      <c r="D199" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
@@ -2595,16 +3176,19 @@
       <c r="A200" t="str">
         <v>CHAN KOK TAT</v>
       </c>
-      <c r="B200">
+      <c r="B200" t="str">
+        <v xml:space="preserve">S1322497H </v>
+      </c>
+      <c r="C200">
         <v>98285723</v>
       </c>
-      <c r="C200" t="str">
+      <c r="D200" t="str">
         <v>WhatsApp Number</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C200"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D200"/>
   </ignoredErrors>
 </worksheet>
 </file>